--- a/bank statement generator/bank_statements/statement_39.xlsx
+++ b/bank statement generator/bank_statements/statement_39.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 29.06.2025</t>
+          <t>KONTOSTAND AM 17.10.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,112 +759,96 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>01.07.</t>
+          <t>18.10.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>02.07.</t>
+          <t>19.10.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>RECHNUNG VODAFONE GMBH 62327998</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>24,22-</t>
+          <t>41,97-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>05.07.</t>
+          <t>19.10.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>06.07.</t>
+          <t>20.10.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 99918609</t>
+          <t>PAYPAL TSXSPI</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>87,55-</t>
+          <t>45,36-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>09.07.</t>
+          <t>22.10.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>10.07.</t>
+          <t>23.10.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>77,41-</t>
+          <t>25,14-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>10.07.</t>
+          <t>25.10.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>11.07.</t>
+          <t>26.10.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL KNLPBL</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 59560162</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>81,74-</t>
+          <t>84,34-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>12.07.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>13.07.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>74,59-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -877,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 16.07.2025</t>
+          <t>KONTOSTAND AM 27.10.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>345,51-</t>
+          <t>196,81-</t>
         </is>
       </c>
     </row>
@@ -890,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 23.07.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 01.11.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
